--- a/Artifacts/ModelArchitecture.xlsx
+++ b/Artifacts/ModelArchitecture.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{EE30A242-FE77-4692-A395-6C0F593B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFE44EA-84EA-43ED-A2C9-A811A103DA81}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{EE30A242-FE77-4692-A395-6C0F593B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{406BA3AD-3300-48A9-8B2E-CA3CCDB216D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{0FC07219-1BF2-46AD-9BCC-26D6D6C70A44}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FC07219-1BF2-46AD-9BCC-26D6D6C70A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Model architecture" sheetId="2" r:id="rId1"/>
+    <sheet name="Hyperparameters" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Conv1</t>
   </si>
@@ -140,6 +141,78 @@
   </si>
   <si>
     <t>CNN layers</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Number of iterations</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>13248 / 6624</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>16/ 32</t>
+  </si>
+  <si>
+    <t>Number of epochs</t>
+  </si>
+  <si>
+    <t>Other parameters</t>
+  </si>
+  <si>
+    <t>Same as original/ single augmentation based models</t>
+  </si>
+  <si>
+    <t>Image size</t>
+  </si>
+  <si>
+    <t>Internal validation size</t>
+  </si>
+  <si>
+    <t>Convolution layer 1</t>
+  </si>
+  <si>
+    <t>Convolution layer 2</t>
+  </si>
+  <si>
+    <t>Convolution layer 3</t>
+  </si>
+  <si>
+    <t>Fully connected layer 1</t>
+  </si>
+  <si>
+    <t>Fully connected layer 2</t>
+  </si>
+  <si>
+    <t>Filter (Kernal) Size</t>
+  </si>
+  <si>
+    <t>Number of filters (out channels</t>
+  </si>
+  <si>
+    <t>Number of filters (out channels)</t>
+  </si>
+  <si>
+    <t>output size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output size </t>
+  </si>
+  <si>
+    <t>Original image/ single augmentation based models (120 and 140 degree rotation)</t>
+  </si>
+  <si>
+    <t>Combined augmentation based model</t>
   </si>
 </sst>
 </file>
@@ -171,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,16 +323,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,6 +386,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BF1FBF-3178-4275-B404-872A76260C15}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,68 +761,68 @@
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>32</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -702,57 +830,57 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>64</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -760,161 +888,164 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>64</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>128</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>131072</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>131072</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>256</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -929,4 +1060,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FDE074-761C-4CF0-B6FD-D75F074CFDA3}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="31">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Artifacts/ModelArchitecture.xlsx
+++ b/Artifacts/ModelArchitecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{EE30A242-FE77-4692-A395-6C0F593B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{406BA3AD-3300-48A9-8B2E-CA3CCDB216D0}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{EE30A242-FE77-4692-A395-6C0F593B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A961650-6DA8-4D29-941E-5720DE99E855}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FC07219-1BF2-46AD-9BCC-26D6D6C70A44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Conv1</t>
   </si>
@@ -155,13 +155,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>13248 / 6624</t>
-  </si>
-  <si>
     <t>Batch size</t>
-  </si>
-  <si>
-    <t>16/ 32</t>
   </si>
   <si>
     <t>Number of epochs</t>
@@ -421,13 +415,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1061,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1100,14 +1094,14 @@
       <c r="B3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>16</v>
@@ -1116,7 +1110,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>24</v>
@@ -1125,7 +1119,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>256</v>
@@ -1134,7 +1128,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="20">
         <v>0.1</v>
@@ -1142,10 +1136,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19">
         <v>3</v>
@@ -1153,10 +1147,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="19">
         <v>32</v>
@@ -1164,10 +1158,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -1175,10 +1169,10 @@
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>64</v>
@@ -1186,10 +1180,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <v>7</v>
@@ -1197,10 +1191,10 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>128</v>
@@ -1208,10 +1202,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3">
         <v>256</v>
@@ -1219,20 +1213,20 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -1246,21 +1240,21 @@
       <c r="A19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>39</v>
+      <c r="B19" s="29">
+        <v>6624</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>24</v>
@@ -1268,10 +1262,10 @@
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
